--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>9</t>
+    <t>1</t>
   </si>
   <si>
     <t>Failed</t>
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2017-04-26T10:00:42Z</t>
+    <t>2017-04-28T07:39:24Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2017-04-26T10:05:30Z</t>
+    <t>2017-04-28T07:40:07Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>288552 ms</t>
+    <t>43149 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -75,85 +75,13 @@
     <t/>
   </si>
   <si>
-    <t>2017-04-26T15:31:15Z</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:31:34Z</t>
-  </si>
-  <si>
-    <t>18952 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.fillingform</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:33:14Z</t>
-  </si>
-  <si>
-    <t>100308 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.waitinglistformfilling</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:33:43Z</t>
-  </si>
-  <si>
-    <t>28912 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.ContactUs</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:34:07Z</t>
-  </si>
-  <si>
-    <t>23887 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.ChangePassword</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:34:24Z</t>
-  </si>
-  <si>
-    <t>16762 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.Updateingprofile</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:34:47Z</t>
-  </si>
-  <si>
-    <t>23255 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.Taxstatement</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:34:58Z</t>
-  </si>
-  <si>
-    <t>10847 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.AccLogout</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:35:09Z</t>
-  </si>
-  <si>
-    <t>10694 ms</t>
-  </si>
-  <si>
-    <t>com.ep.testscripts.TestSuite.ForgotPassword</t>
-  </si>
-  <si>
-    <t>2017-04-26T15:35:25Z</t>
-  </si>
-  <si>
-    <t>16120 ms</t>
+    <t>2017-04-28T13:09:46Z</t>
+  </si>
+  <si>
+    <t>2017-04-28T13:10:02Z</t>
+  </si>
+  <si>
+    <t>16241 ms</t>
   </si>
 </sst>
 </file>
@@ -275,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -301,54 +229,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -411,7 +291,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.23046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,12 +373,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.97265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.34375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="27.84765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.84765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,166 +421,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="72" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="78" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>Failed</t>
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2017-04-28T07:39:24Z</t>
+    <t>2017-06-01T09:13:11Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2017-04-28T07:40:07Z</t>
+    <t>2017-06-01T09:14:16Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>43149 ms</t>
+    <t>64870 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -75,13 +75,22 @@
     <t/>
   </si>
   <si>
-    <t>2017-04-28T13:09:46Z</t>
-  </si>
-  <si>
-    <t>2017-04-28T13:10:02Z</t>
-  </si>
-  <si>
-    <t>16241 ms</t>
+    <t>2017-06-01T14:43:22Z</t>
+  </si>
+  <si>
+    <t>2017-06-01T14:43:38Z</t>
+  </si>
+  <si>
+    <t>15749 ms</t>
+  </si>
+  <si>
+    <t>com.ep.testscripts.TestSuite.fillingform</t>
+  </si>
+  <si>
+    <t>2017-06-01T14:44:09Z</t>
+  </si>
+  <si>
+    <t>31336 ms</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -229,6 +238,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
@@ -291,7 +306,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -373,10 +388,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.34375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -421,6 +436,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions gridLines="true"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2017-06-01T09:13:11Z</t>
+    <t>2017-09-05T07:38:09Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2017-06-01T09:14:16Z</t>
+    <t>2017-09-05T07:40:07Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>64870 ms</t>
+    <t>118675 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -75,22 +75,22 @@
     <t/>
   </si>
   <si>
-    <t>2017-06-01T14:43:22Z</t>
-  </si>
-  <si>
-    <t>2017-06-01T14:43:38Z</t>
-  </si>
-  <si>
-    <t>15749 ms</t>
+    <t>2017-09-05T13:08:23Z</t>
+  </si>
+  <si>
+    <t>2017-09-05T13:08:42Z</t>
+  </si>
+  <si>
+    <t>19277 ms</t>
   </si>
   <si>
     <t>com.ep.testscripts.TestSuite.fillingform</t>
   </si>
   <si>
-    <t>2017-06-01T14:44:09Z</t>
-  </si>
-  <si>
-    <t>31336 ms</t>
+    <t>2017-09-05T13:10:02Z</t>
+  </si>
+  <si>
+    <t>80063 ms</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.23046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -391,8 +391,8 @@
     <col min="1" max="1" width="46.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.46484375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.46484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="27.84765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/test-output/TestReport.xlsx
+++ b/test-output/TestReport.xlsx
@@ -42,19 +42,19 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2017-09-05T07:38:09Z</t>
+    <t>2017-10-11T09:54:17Z</t>
   </si>
   <si>
     <t>End Time</t>
   </si>
   <si>
-    <t>2017-09-05T07:40:07Z</t>
+    <t>2017-10-11T09:55:35Z</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>118675 ms</t>
+    <t>77864 ms</t>
   </si>
   <si>
     <t>TestCase Name</t>
@@ -75,22 +75,22 @@
     <t/>
   </si>
   <si>
-    <t>2017-09-05T13:08:23Z</t>
-  </si>
-  <si>
-    <t>2017-09-05T13:08:42Z</t>
-  </si>
-  <si>
-    <t>19277 ms</t>
+    <t>2017-10-11T15:24:43Z</t>
+  </si>
+  <si>
+    <t>2017-10-11T15:25:07Z</t>
+  </si>
+  <si>
+    <t>23148 ms</t>
   </si>
   <si>
     <t>com.ep.testscripts.TestSuite.fillingform</t>
   </si>
   <si>
-    <t>2017-09-05T13:10:02Z</t>
-  </si>
-  <si>
-    <t>80063 ms</t>
+    <t>2017-10-11T15:25:30Z</t>
+  </si>
+  <si>
+    <t>23508 ms</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.88671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -391,8 +391,8 @@
     <col min="1" max="1" width="46.46875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="10.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="27.84765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.84765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="26.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="26.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="13.08203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
